--- a/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H2">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>730.5054114671856</v>
+        <v>1145.733967481544</v>
       </c>
       <c r="R2">
-        <v>730.5054114671856</v>
+        <v>10311.6057073339</v>
       </c>
       <c r="S2">
-        <v>0.0681759821306876</v>
+        <v>0.08577959249898426</v>
       </c>
       <c r="T2">
-        <v>0.0681759821306876</v>
+        <v>0.08956252137057739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H3">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>2052.007016924276</v>
+        <v>2667.113789111946</v>
       </c>
       <c r="R3">
-        <v>2052.007016924276</v>
+        <v>24004.02410200752</v>
       </c>
       <c r="S3">
-        <v>0.1915079498684306</v>
+        <v>0.1996832951381708</v>
       </c>
       <c r="T3">
-        <v>0.1915079498684306</v>
+        <v>0.2084894421522405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H4">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>247.4524707375252</v>
+        <v>368.174701584792</v>
       </c>
       <c r="R4">
-        <v>247.4524707375252</v>
+        <v>3313.572314263128</v>
       </c>
       <c r="S4">
-        <v>0.02309403182833757</v>
+        <v>0.02756475479189922</v>
       </c>
       <c r="T4">
-        <v>0.02309403182833757</v>
+        <v>0.02878037617342881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H5">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I5">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J5">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>255.5108604879925</v>
+        <v>307.918771182936</v>
       </c>
       <c r="R5">
-        <v>255.5108604879925</v>
+        <v>2771.268940646424</v>
       </c>
       <c r="S5">
-        <v>0.02384609831135862</v>
+        <v>0.02305347267736103</v>
       </c>
       <c r="T5">
-        <v>0.02384609831135862</v>
+        <v>0.02407014394894238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H6">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I6">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J6">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>526.1420759964658</v>
+        <v>651.3438630358891</v>
       </c>
       <c r="R6">
-        <v>526.1420759964658</v>
+        <v>3908.063178215335</v>
       </c>
       <c r="S6">
-        <v>0.04910333613996674</v>
+        <v>0.04876525679931261</v>
       </c>
       <c r="T6">
-        <v>0.04910333613996674</v>
+        <v>0.03394388826053896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H7">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I7">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J7">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>1323.048559921585</v>
+        <v>1831.386387864311</v>
       </c>
       <c r="R7">
-        <v>1323.048559921585</v>
+        <v>16482.4774907788</v>
       </c>
       <c r="S7">
-        <v>0.123476340576428</v>
+        <v>0.1371134857810855</v>
       </c>
       <c r="T7">
-        <v>0.123476340576428</v>
+        <v>0.1431602685756317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H8">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I8">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J8">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>3716.474766747987</v>
+        <v>4263.219933159138</v>
       </c>
       <c r="R8">
-        <v>3716.474766747987</v>
+        <v>38368.97939843224</v>
       </c>
       <c r="S8">
-        <v>0.3468479675983122</v>
+        <v>0.3191816590755207</v>
       </c>
       <c r="T8">
-        <v>0.3468479675983122</v>
+        <v>0.3332577519808825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H9">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I9">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J9">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>448.1714028658189</v>
+        <v>588.5049723370921</v>
       </c>
       <c r="R9">
-        <v>448.1714028658189</v>
+        <v>5296.544751033828</v>
       </c>
       <c r="S9">
-        <v>0.04182655607149842</v>
+        <v>0.04406059185071245</v>
       </c>
       <c r="T9">
-        <v>0.04182655607149842</v>
+        <v>0.04600368903916686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H10">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I10">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J10">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>462.7662857883549</v>
+        <v>492.1895152955027</v>
       </c>
       <c r="R10">
-        <v>462.7662857883549</v>
+        <v>4429.705637659524</v>
       </c>
       <c r="S10">
-        <v>0.04318865477974459</v>
+        <v>0.03684958048954842</v>
       </c>
       <c r="T10">
-        <v>0.04318865477974459</v>
+        <v>0.03847466797106867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.731137135584</v>
+        <v>33.645613</v>
       </c>
       <c r="H11">
-        <v>31.731137135584</v>
+        <v>100.936839</v>
       </c>
       <c r="I11">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="J11">
-        <v>0.644272601721219</v>
+        <v>0.615153628094272</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N11">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O11">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P11">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q11">
-        <v>952.9176718392407</v>
+        <v>1041.133734740302</v>
       </c>
       <c r="R11">
-        <v>952.9176718392407</v>
+        <v>6246.80240844181</v>
       </c>
       <c r="S11">
-        <v>0.08893308269523584</v>
+        <v>0.07794831089740496</v>
       </c>
       <c r="T11">
-        <v>0.08893308269523584</v>
+        <v>0.0542572505275223</v>
       </c>
     </row>
   </sheetData>
